--- a/InputData/elec/RM/Reserve Margin.xlsx
+++ b/InputData/elec/RM/Reserve Margin.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\India\India EPS\InputData UPDATE FOR INDIA\elec\RM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\RM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485633A7-5627-42B5-8F0E-0571A9027FC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="11580"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="RM" sheetId="2" r:id="rId2"/>
+    <sheet name="Calcs" sheetId="3" r:id="rId2"/>
+    <sheet name="RM" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>RM Reserve Margin</t>
   </si>
@@ -31,23 +41,83 @@
     <t>Reserve Margin</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
-    <t xml:space="preserve">India's actual reserve margin is very high, on the order of 50-70%, so we </t>
-  </si>
-  <si>
-    <t>default to a normal, "good practice" reserve margin of 15%.</t>
+    <t>The Reserve Margin has increased from 50.94% in 2011-12 to 71.78% in March, 2017.</t>
+  </si>
+  <si>
+    <t>This increase in Reserve Margin is on account of decrease in thermal PLF from 73.32 % in 2011-12 to 59.88% in 2016-17.</t>
+  </si>
+  <si>
+    <t>http://www.cea.nic.in/reports/committee/nep/nep_jan_2018.pdf</t>
+  </si>
+  <si>
+    <t>We assume that once coal PLF's improve, RM can be brought down to 10%</t>
+  </si>
+  <si>
+    <t>Central Electricity Authority</t>
+  </si>
+  <si>
+    <t>FLEXIBLE OPERATION OF THERMAL POWER PLANT</t>
+  </si>
+  <si>
+    <t>FOR INTEGRATION OF RENEWABLE GENERATION</t>
+  </si>
+  <si>
+    <t>http://www.cea.nic.in/reports/others/thermal/trm/flexible_operation.pdf</t>
+  </si>
+  <si>
+    <t>Annexure 1, Page 1 of 9</t>
+  </si>
+  <si>
+    <t>National Institute of Advanced Studies</t>
+  </si>
+  <si>
+    <t>The Future of the Indian Electricity Sector with HighRenewable Penetration</t>
+  </si>
+  <si>
+    <t>CECFEE Workshop, ISI Delhi</t>
+  </si>
+  <si>
+    <t>https://www.isid.ac.in/~cecfee/wp-content/uploads/2017/02/The-Future-of-the-Indian-Electricity-Sector.pdf</t>
+  </si>
+  <si>
+    <t>Slide 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We assume that from 2032 onwards, RMs can be 10%. Prior to that, they are interpolated to steadily decline from 2017 values </t>
+  </si>
+  <si>
+    <t>PLF's for new coal plants are expected to improve (&gt;75%) from 2032 onward in "BAU expected Capacity Factors"</t>
+  </si>
+  <si>
+    <t>to correspond with the improvement in PLF</t>
+  </si>
+  <si>
+    <t>Two independent studies (CEA, NIAS) that examine more renewables in the generation mix assume RM of 10%</t>
+  </si>
+  <si>
+    <t>Historic Reserve Margins</t>
+  </si>
+  <si>
+    <t>Sec 1.2.6, pp 1.7</t>
+  </si>
+  <si>
+    <t>National Electricity Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As per NEP, </t>
+  </si>
+  <si>
+    <t>(dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +133,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,18 +165,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -184,6 +279,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -219,6 +331,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,64 +523,457 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="49.140625" customWidth="1"/>
+    <col min="10" max="10" width="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{860B9DB3-EBFB-4444-9721-95B4C478CD4E}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{8225F9A6-5928-48E2-8300-AEDFE7FB6DF5}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{40D93D18-6DD5-4BF4-B38B-B9455144DBC1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D05B722-93AE-4D47-8633-91BA8E0165DE}">
+  <dimension ref="A1:AJ5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>6</v>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2015</v>
+      </c>
+      <c r="B1">
+        <v>2016</v>
+      </c>
+      <c r="C1">
+        <v>2017</v>
+      </c>
+      <c r="D1">
+        <v>2018</v>
+      </c>
+      <c r="E1">
+        <v>2019</v>
+      </c>
+      <c r="F1">
+        <v>2020</v>
+      </c>
+      <c r="G1">
+        <v>2021</v>
+      </c>
+      <c r="H1">
+        <v>2022</v>
+      </c>
+      <c r="I1">
+        <v>2023</v>
+      </c>
+      <c r="J1">
+        <v>2024</v>
+      </c>
+      <c r="K1">
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <v>2026</v>
+      </c>
+      <c r="M1">
+        <v>2027</v>
+      </c>
+      <c r="N1">
+        <v>2028</v>
+      </c>
+      <c r="O1">
+        <v>2029</v>
+      </c>
+      <c r="P1">
+        <v>2030</v>
+      </c>
+      <c r="Q1">
+        <v>2031</v>
+      </c>
+      <c r="R1">
+        <v>2032</v>
+      </c>
+      <c r="S1">
+        <v>2033</v>
+      </c>
+      <c r="T1">
+        <v>2034</v>
+      </c>
+      <c r="U1">
+        <v>2035</v>
+      </c>
+      <c r="V1">
+        <v>2036</v>
+      </c>
+      <c r="W1">
+        <v>2037</v>
+      </c>
+      <c r="X1">
+        <v>2038</v>
+      </c>
+      <c r="Y1">
+        <v>2039</v>
+      </c>
+      <c r="Z1">
+        <v>2040</v>
+      </c>
+      <c r="AA1">
+        <v>2041</v>
+      </c>
+      <c r="AB1">
+        <v>2042</v>
+      </c>
+      <c r="AC1">
+        <v>2043</v>
+      </c>
+      <c r="AD1">
+        <v>2044</v>
+      </c>
+      <c r="AE1">
+        <v>2045</v>
+      </c>
+      <c r="AF1">
+        <v>2046</v>
+      </c>
+      <c r="AG1">
+        <v>2047</v>
+      </c>
+      <c r="AH1">
+        <v>2048</v>
+      </c>
+      <c r="AI1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>C2</f>
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="B2">
+        <f>C2</f>
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="D2">
+        <f>FORECAST(D1,$C$5:$D$5,$C$4:$D$4)</f>
+        <v>0.67661333333333573</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:Q2" si="0">FORECAST(E1,$C$5:$D$5,$C$4:$D$4)</f>
+        <v>0.63542666666666037</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0.59423999999999921</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0.55305333333332385</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0.5118666666666627</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>0.47068000000000154</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>0.42949333333332618</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0.38830666666666502</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>0.34712000000000387</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0.30593333333332851</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>0.26474666666666735</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0.22355999999999199</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>0.18237333333333083</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>0.14118666666666968</v>
+      </c>
+      <c r="R2">
+        <v>0.1</v>
+      </c>
+      <c r="S2">
+        <f>R2</f>
+        <v>0.1</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:AJ2" si="1">S2</f>
+        <v>0.1</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>2017</v>
+      </c>
+      <c r="D4">
+        <f>R1</f>
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>C2</f>
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="D5">
+        <f>R2</f>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,6 +982,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
       <c r="B1">
         <v>2015</v>
       </c>
@@ -574,112 +1099,148 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>0.15</v>
+        <f>Calcs!A2</f>
+        <v>0.71779999999999999</v>
       </c>
       <c r="C2" s="3">
-        <v>0.15</v>
+        <f>Calcs!B2</f>
+        <v>0.71779999999999999</v>
       </c>
       <c r="D2" s="3">
-        <v>0.15</v>
+        <f>Calcs!C2</f>
+        <v>0.71779999999999999</v>
       </c>
       <c r="E2" s="3">
-        <v>0.15</v>
+        <f>Calcs!D2</f>
+        <v>0.67661333333333573</v>
       </c>
       <c r="F2" s="3">
-        <v>0.15</v>
+        <f>Calcs!E2</f>
+        <v>0.63542666666666037</v>
       </c>
       <c r="G2" s="3">
-        <v>0.15</v>
+        <f>Calcs!F2</f>
+        <v>0.59423999999999921</v>
       </c>
       <c r="H2" s="3">
-        <v>0.15</v>
+        <f>Calcs!G2</f>
+        <v>0.55305333333332385</v>
       </c>
       <c r="I2" s="3">
-        <v>0.15</v>
+        <f>Calcs!H2</f>
+        <v>0.5118666666666627</v>
       </c>
       <c r="J2" s="3">
-        <v>0.15</v>
+        <f>Calcs!I2</f>
+        <v>0.47068000000000154</v>
       </c>
       <c r="K2" s="3">
-        <v>0.15</v>
+        <f>Calcs!J2</f>
+        <v>0.42949333333332618</v>
       </c>
       <c r="L2" s="3">
-        <v>0.15</v>
+        <f>Calcs!K2</f>
+        <v>0.38830666666666502</v>
       </c>
       <c r="M2" s="3">
-        <v>0.15</v>
+        <f>Calcs!L2</f>
+        <v>0.34712000000000387</v>
       </c>
       <c r="N2" s="3">
-        <v>0.15</v>
+        <f>Calcs!M2</f>
+        <v>0.30593333333332851</v>
       </c>
       <c r="O2" s="3">
-        <v>0.15</v>
+        <f>Calcs!N2</f>
+        <v>0.26474666666666735</v>
       </c>
       <c r="P2" s="3">
-        <v>0.15</v>
+        <f>Calcs!O2</f>
+        <v>0.22355999999999199</v>
       </c>
       <c r="Q2" s="3">
-        <v>0.15</v>
+        <f>Calcs!P2</f>
+        <v>0.18237333333333083</v>
       </c>
       <c r="R2" s="3">
-        <v>0.15</v>
+        <f>Calcs!Q2</f>
+        <v>0.14118666666666968</v>
       </c>
       <c r="S2" s="3">
-        <v>0.15</v>
+        <f>Calcs!R2</f>
+        <v>0.1</v>
       </c>
       <c r="T2" s="3">
-        <v>0.15</v>
+        <f>Calcs!S2</f>
+        <v>0.1</v>
       </c>
       <c r="U2" s="3">
-        <v>0.15</v>
+        <f>Calcs!T2</f>
+        <v>0.1</v>
       </c>
       <c r="V2" s="3">
-        <v>0.15</v>
+        <f>Calcs!U2</f>
+        <v>0.1</v>
       </c>
       <c r="W2" s="3">
-        <v>0.15</v>
+        <f>Calcs!V2</f>
+        <v>0.1</v>
       </c>
       <c r="X2" s="3">
-        <v>0.15</v>
+        <f>Calcs!W2</f>
+        <v>0.1</v>
       </c>
       <c r="Y2" s="3">
-        <v>0.15</v>
+        <f>Calcs!X2</f>
+        <v>0.1</v>
       </c>
       <c r="Z2" s="3">
-        <v>0.15</v>
+        <f>Calcs!Y2</f>
+        <v>0.1</v>
       </c>
       <c r="AA2" s="3">
-        <v>0.15</v>
+        <f>Calcs!Z2</f>
+        <v>0.1</v>
       </c>
       <c r="AB2" s="3">
-        <v>0.15</v>
+        <f>Calcs!AA2</f>
+        <v>0.1</v>
       </c>
       <c r="AC2" s="3">
-        <v>0.15</v>
+        <f>Calcs!AB2</f>
+        <v>0.1</v>
       </c>
       <c r="AD2" s="3">
-        <v>0.15</v>
+        <f>Calcs!AC2</f>
+        <v>0.1</v>
       </c>
       <c r="AE2" s="3">
-        <v>0.15</v>
+        <f>Calcs!AD2</f>
+        <v>0.1</v>
       </c>
       <c r="AF2" s="3">
-        <v>0.15</v>
+        <f>Calcs!AE2</f>
+        <v>0.1</v>
       </c>
       <c r="AG2" s="3">
-        <v>0.15</v>
+        <f>Calcs!AF2</f>
+        <v>0.1</v>
       </c>
       <c r="AH2" s="3">
-        <v>0.15</v>
+        <f>Calcs!AG2</f>
+        <v>0.1</v>
       </c>
       <c r="AI2" s="3">
-        <v>0.15</v>
+        <f>Calcs!AH2</f>
+        <v>0.1</v>
       </c>
       <c r="AJ2" s="3">
-        <v>0.15</v>
+        <f>Calcs!AI2</f>
+        <v>0.1</v>
       </c>
       <c r="AK2" s="3">
-        <v>0.15</v>
+        <f>Calcs!AJ2</f>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
